--- a/Timekeeping/2024/09-24/LOTFI S 09-24.xlsx
+++ b/Timekeeping/2024/09-24/LOTFI S 09-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Timekeeping\09-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/095d5c38fd0987cc/RWA/1901/Eric's Billing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54101D3C-4D2E-4611-B6FF-35495A5D6C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{54101D3C-4D2E-4611-B6FF-35495A5D6C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2856C13F-7992-478C-A5DD-921C46B2A254}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3810" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
   <si>
     <t>NAME</t>
   </si>
@@ -1270,7 +1270,7 @@
   <dimension ref="A1:GH79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC18" sqref="AC18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2613,7 +2613,9 @@
       <c r="B12" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="85"/>
+      <c r="C12" s="85" t="s">
+        <v>27</v>
+      </c>
       <c r="D12" s="79" t="s">
         <v>20</v>
       </c>
